--- a/2_nominalLeon/base_datos_leon.xlsx
+++ b/2_nominalLeon/base_datos_leon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unedo365-my.sharepoint.com/personal/welvira_flog_uned_es/Documents/git-me/tallerEstadisticaParaFonetistas/2_nominalLeon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A3BB03-EDCD-D446-B4C4-104DB7A16C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{10A3BB03-EDCD-D446-B4C4-104DB7A16C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{50D97709-2934-1346-9DD5-7F526A6A0711}"/>
   <bookViews>
     <workbookView xWindow="11960" yWindow="1000" windowWidth="28040" windowHeight="17440" xr2:uid="{85CBB165-2F6F-4A42-8850-E6201D0DA608}"/>
   </bookViews>
@@ -123,655 +123,655 @@
     <t>¡H* LH%</t>
   </si>
   <si>
-    <t>wl61bwki1.png</t>
-  </si>
-  <si>
-    <t>wl61bwki2.png</t>
-  </si>
-  <si>
-    <t>wl61bwki3.png</t>
-  </si>
-  <si>
-    <t>wl61bwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61bwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61bwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61bwti1.png</t>
-  </si>
-  <si>
-    <t>wl61bwti2.png</t>
-  </si>
-  <si>
-    <t>wl61bwti3.png</t>
-  </si>
-  <si>
-    <t>wl61dwki1.png</t>
-  </si>
-  <si>
-    <t>wl61dwki2.png</t>
-  </si>
-  <si>
-    <t>wl61dwki3.png</t>
-  </si>
-  <si>
-    <t>wl61dwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61dwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61dwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61dwti2.png</t>
-  </si>
-  <si>
-    <t>wl61dwti3.png</t>
-  </si>
-  <si>
-    <t>wl61fwki1.png</t>
-  </si>
-  <si>
-    <t>wl61fwki2.png</t>
-  </si>
-  <si>
-    <t>wl61fwki3.png</t>
-  </si>
-  <si>
-    <t>wl61fwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61fwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61fwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61fwti1.png</t>
-  </si>
-  <si>
-    <t>wl61fwti2.png</t>
-  </si>
-  <si>
-    <t>wl61fwti3.png</t>
-  </si>
-  <si>
-    <t>wl61gwki1.png</t>
-  </si>
-  <si>
-    <t>wl61gwki2.png</t>
-  </si>
-  <si>
-    <t>wl61gwki3.png</t>
-  </si>
-  <si>
-    <t>wl61gwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61gwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61gwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61gwti1.png</t>
-  </si>
-  <si>
-    <t>wl61gwti2.png</t>
-  </si>
-  <si>
-    <t>wl61gwti3.png</t>
-  </si>
-  <si>
-    <t>wl61jwki2.png</t>
-  </si>
-  <si>
-    <t>wl61jwki3.png</t>
-  </si>
-  <si>
-    <t>wl61jwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61jwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61jwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61jwti2.png</t>
-  </si>
-  <si>
-    <t>wl61jwti3.png</t>
-  </si>
-  <si>
-    <t>wl61kwbi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwbi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwbi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwdi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwdi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwfi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwfi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwfi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwgi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwji1.png</t>
-  </si>
-  <si>
-    <t>wl61kwji2.png</t>
-  </si>
-  <si>
-    <t>wl61kwji3.png</t>
-  </si>
-  <si>
-    <t>wl61kwki2.png</t>
-  </si>
-  <si>
-    <t>wl61kwki3.png</t>
-  </si>
-  <si>
-    <t>wl61kwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwsi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwsi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwsi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwti1.png</t>
-  </si>
-  <si>
-    <t>wl61kwti2.png</t>
-  </si>
-  <si>
-    <t>wl61kwti3.png</t>
-  </si>
-  <si>
-    <t>wl61kwvi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwvi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwvi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwxi3.png</t>
-  </si>
-  <si>
-    <t>wl61kwzi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwzi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwzi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwbi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwdi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwdi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwdi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwfi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwfi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwfi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwgi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwgi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwgi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwji1.png</t>
-  </si>
-  <si>
-    <t>wl61pwji2.png</t>
-  </si>
-  <si>
-    <t>wl61pwji3.png</t>
-  </si>
-  <si>
-    <t>wl61pwki1.png</t>
-  </si>
-  <si>
-    <t>wl61pwki2.png</t>
-  </si>
-  <si>
-    <t>wl61pwki3.png</t>
-  </si>
-  <si>
-    <t>wl61pwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwsi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwsi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwsi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwti1.png</t>
-  </si>
-  <si>
-    <t>wl61pwti2.png</t>
-  </si>
-  <si>
-    <t>wl61pwti3.png</t>
-  </si>
-  <si>
-    <t>wl61pwvi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwvi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwvi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwxi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwxi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwxi3.png</t>
-  </si>
-  <si>
-    <t>wl61pwzi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwzi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwzi3.png</t>
-  </si>
-  <si>
-    <t>wl61swki1.png</t>
-  </si>
-  <si>
-    <t>wl61swki2.png</t>
-  </si>
-  <si>
-    <t>wl61swpi1.png</t>
-  </si>
-  <si>
-    <t>wl61swpi2.png</t>
-  </si>
-  <si>
-    <t>wl61swpi3.png</t>
-  </si>
-  <si>
-    <t>wl61swti2.png</t>
-  </si>
-  <si>
-    <t>wl61swti3.png</t>
-  </si>
-  <si>
-    <t>wl61twbi2.png</t>
-  </si>
-  <si>
-    <t>wl61twbi3.png</t>
-  </si>
-  <si>
-    <t>wl61twdi1.png</t>
-  </si>
-  <si>
-    <t>wl61twdi2.png</t>
-  </si>
-  <si>
-    <t>wl61twdi3.png</t>
-  </si>
-  <si>
-    <t>wl61twfi1.png</t>
-  </si>
-  <si>
-    <t>wl61twfi2.png</t>
-  </si>
-  <si>
-    <t>wl61twfi3.png</t>
-  </si>
-  <si>
-    <t>wl61twgi1.png</t>
-  </si>
-  <si>
-    <t>wl61twgi2.png</t>
-  </si>
-  <si>
-    <t>wl61twgi3.png</t>
-  </si>
-  <si>
-    <t>wl61twji1.png</t>
-  </si>
-  <si>
-    <t>wl61twji2.png</t>
-  </si>
-  <si>
-    <t>wl61twji3.png</t>
-  </si>
-  <si>
-    <t>wl61twki1.png</t>
-  </si>
-  <si>
-    <t>wl61twki2.png</t>
-  </si>
-  <si>
-    <t>wl61twki3.png</t>
-  </si>
-  <si>
-    <t>wl61twpi1.png</t>
-  </si>
-  <si>
-    <t>wl61twpi2.png</t>
-  </si>
-  <si>
-    <t>wl61twpi3.png</t>
-  </si>
-  <si>
-    <t>wl61twsi1.png</t>
-  </si>
-  <si>
-    <t>wl61twsi2.png</t>
-  </si>
-  <si>
-    <t>wl61twsi3.png</t>
-  </si>
-  <si>
-    <t>wl61twti2.png</t>
-  </si>
-  <si>
-    <t>wl61twti3.png</t>
-  </si>
-  <si>
-    <t>wl61twvi1.png</t>
-  </si>
-  <si>
-    <t>wl61twvi2.png</t>
-  </si>
-  <si>
-    <t>wl61twvi3.png</t>
-  </si>
-  <si>
-    <t>wl61twxi1.png</t>
-  </si>
-  <si>
-    <t>wl61twxi2.png</t>
-  </si>
-  <si>
-    <t>wl61twxi3.png</t>
-  </si>
-  <si>
-    <t>wl61twzi1.png</t>
-  </si>
-  <si>
-    <t>wl61twzi2.png</t>
-  </si>
-  <si>
-    <t>wl61twzi3.png</t>
-  </si>
-  <si>
-    <t>wl61vwki1.png</t>
-  </si>
-  <si>
-    <t>wl61vwki2.png</t>
-  </si>
-  <si>
-    <t>wl61vwki3.png</t>
-  </si>
-  <si>
-    <t>wl61vwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61vwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61vwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61vwti1.png</t>
-  </si>
-  <si>
-    <t>wl61vwti2.png</t>
-  </si>
-  <si>
-    <t>wl61vwti3.png</t>
-  </si>
-  <si>
-    <t>wl61xwki1.png</t>
-  </si>
-  <si>
-    <t>wl61xwki2.png</t>
-  </si>
-  <si>
-    <t>wl61xwki3.png</t>
-  </si>
-  <si>
-    <t>wl61xwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61xwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61xwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61xwti1.png</t>
-  </si>
-  <si>
-    <t>wl61xwti2.png</t>
-  </si>
-  <si>
-    <t>wl61xwti3.png</t>
-  </si>
-  <si>
-    <t>wl61zwki1.png</t>
-  </si>
-  <si>
-    <t>wl61zwki2.png</t>
-  </si>
-  <si>
-    <t>wl61zwki3.png</t>
-  </si>
-  <si>
-    <t>wl61zwpi1.png</t>
-  </si>
-  <si>
-    <t>wl61zwpi2.png</t>
-  </si>
-  <si>
-    <t>wl61zwpi3.png</t>
-  </si>
-  <si>
-    <t>wl61zwti1.png</t>
-  </si>
-  <si>
-    <t>wl61zwti2.png</t>
-  </si>
-  <si>
-    <t>wl61zwti3.png</t>
-  </si>
-  <si>
-    <t>wl61dwti1.png</t>
-  </si>
-  <si>
-    <t>wl61jwki1.png</t>
-  </si>
-  <si>
-    <t>wl61jwti1.png</t>
-  </si>
-  <si>
-    <t>wl61kwdi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwgi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwgi2.png</t>
-  </si>
-  <si>
-    <t>wl61kwki1.png</t>
-  </si>
-  <si>
-    <t>wl61kwxi1.png</t>
-  </si>
-  <si>
-    <t>wl61kwxi2.png</t>
-  </si>
-  <si>
-    <t>wl61pwbi1.png</t>
-  </si>
-  <si>
-    <t>wl61pwbi3.png</t>
-  </si>
-  <si>
-    <t>wl61swpa3.png</t>
-  </si>
-  <si>
-    <t>wl61swti1.png</t>
-  </si>
-  <si>
-    <t>wl61twbi1.png</t>
-  </si>
-  <si>
-    <t>wl61twti1.png</t>
-  </si>
-  <si>
     <t>¡H* L%</t>
   </si>
   <si>
     <t>Inducido</t>
   </si>
   <si>
-    <t>inducido_hora1.wav</t>
-  </si>
-  <si>
-    <t>inducido_hora2.wav</t>
-  </si>
-  <si>
-    <t>inducido_hora3.wav</t>
-  </si>
-  <si>
-    <t>inducido_hora4.wav</t>
-  </si>
-  <si>
-    <t>inducido_pan1.wav</t>
-  </si>
-  <si>
-    <t>inducido_pan2.wav</t>
-  </si>
-  <si>
-    <t>inducido_pan3.wav</t>
-  </si>
-  <si>
-    <t>inducido_pan4.wav</t>
-  </si>
-  <si>
-    <t>inducido_tiempo2.wav</t>
-  </si>
-  <si>
-    <t>inducido_tiempo3.wav</t>
-  </si>
-  <si>
-    <t>inducido_tiempo4.wav</t>
-  </si>
-  <si>
     <t>MapTask</t>
   </si>
   <si>
-    <t>casaspequenas.wav</t>
-  </si>
-  <si>
-    <t>castanos_ch1.wav</t>
-  </si>
-  <si>
-    <t>cipreses_ch1.wav</t>
-  </si>
-  <si>
-    <t>cordillera_ch1.wav</t>
-  </si>
-  <si>
-    <t>hastaelpuerto_ch1.wav</t>
-  </si>
-  <si>
-    <t>nopasoelrio_ch1.wav</t>
-  </si>
-  <si>
-    <t>patatas_ch1.wav</t>
-  </si>
-  <si>
-    <t>puente_ch1.wav</t>
-  </si>
-  <si>
-    <t>quehagoSigobajando_ch1.wav</t>
-  </si>
-  <si>
-    <t>tesoroOculto_ch1.wav</t>
-  </si>
-  <si>
-    <t>vuelvoatravesarelrio_ch1.wav</t>
-  </si>
-  <si>
-    <t>yenelpuertosigobakando_ch1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">¡H* LH% </t>
   </si>
   <si>
     <t>Archivo</t>
+  </si>
+  <si>
+    <t>wl61bwki1</t>
+  </si>
+  <si>
+    <t>wl61bwki2</t>
+  </si>
+  <si>
+    <t>wl61bwki3</t>
+  </si>
+  <si>
+    <t>wl61bwpi1</t>
+  </si>
+  <si>
+    <t>wl61bwpi2</t>
+  </si>
+  <si>
+    <t>wl61bwpi3</t>
+  </si>
+  <si>
+    <t>wl61bwti1</t>
+  </si>
+  <si>
+    <t>wl61bwti2</t>
+  </si>
+  <si>
+    <t>wl61bwti3</t>
+  </si>
+  <si>
+    <t>wl61dwki1</t>
+  </si>
+  <si>
+    <t>wl61dwki2</t>
+  </si>
+  <si>
+    <t>wl61dwki3</t>
+  </si>
+  <si>
+    <t>wl61dwpi1</t>
+  </si>
+  <si>
+    <t>wl61dwpi2</t>
+  </si>
+  <si>
+    <t>wl61dwpi3</t>
+  </si>
+  <si>
+    <t>wl61dwti2</t>
+  </si>
+  <si>
+    <t>wl61dwti3</t>
+  </si>
+  <si>
+    <t>wl61fwki1</t>
+  </si>
+  <si>
+    <t>wl61fwki2</t>
+  </si>
+  <si>
+    <t>wl61fwki3</t>
+  </si>
+  <si>
+    <t>wl61fwpi1</t>
+  </si>
+  <si>
+    <t>wl61fwpi2</t>
+  </si>
+  <si>
+    <t>wl61fwpi3</t>
+  </si>
+  <si>
+    <t>wl61fwti1</t>
+  </si>
+  <si>
+    <t>wl61fwti2</t>
+  </si>
+  <si>
+    <t>wl61fwti3</t>
+  </si>
+  <si>
+    <t>wl61gwki1</t>
+  </si>
+  <si>
+    <t>wl61gwki2</t>
+  </si>
+  <si>
+    <t>wl61gwki3</t>
+  </si>
+  <si>
+    <t>wl61gwpi1</t>
+  </si>
+  <si>
+    <t>wl61gwpi2</t>
+  </si>
+  <si>
+    <t>wl61gwpi3</t>
+  </si>
+  <si>
+    <t>wl61gwti1</t>
+  </si>
+  <si>
+    <t>wl61gwti2</t>
+  </si>
+  <si>
+    <t>wl61gwti3</t>
+  </si>
+  <si>
+    <t>wl61jwki2</t>
+  </si>
+  <si>
+    <t>wl61jwki3</t>
+  </si>
+  <si>
+    <t>wl61jwpi1</t>
+  </si>
+  <si>
+    <t>wl61jwpi2</t>
+  </si>
+  <si>
+    <t>wl61jwpi3</t>
+  </si>
+  <si>
+    <t>wl61jwti2</t>
+  </si>
+  <si>
+    <t>wl61jwti3</t>
+  </si>
+  <si>
+    <t>wl61kwbi1</t>
+  </si>
+  <si>
+    <t>wl61kwbi2</t>
+  </si>
+  <si>
+    <t>wl61kwbi3</t>
+  </si>
+  <si>
+    <t>wl61kwdi2</t>
+  </si>
+  <si>
+    <t>wl61kwdi3</t>
+  </si>
+  <si>
+    <t>wl61kwfi1</t>
+  </si>
+  <si>
+    <t>wl61kwfi2</t>
+  </si>
+  <si>
+    <t>wl61kwfi3</t>
+  </si>
+  <si>
+    <t>wl61kwgi3</t>
+  </si>
+  <si>
+    <t>wl61kwji1</t>
+  </si>
+  <si>
+    <t>wl61kwji2</t>
+  </si>
+  <si>
+    <t>wl61kwji3</t>
+  </si>
+  <si>
+    <t>wl61kwki2</t>
+  </si>
+  <si>
+    <t>wl61kwki3</t>
+  </si>
+  <si>
+    <t>wl61kwpi1</t>
+  </si>
+  <si>
+    <t>wl61kwpi2</t>
+  </si>
+  <si>
+    <t>wl61kwpi3</t>
+  </si>
+  <si>
+    <t>wl61kwsi1</t>
+  </si>
+  <si>
+    <t>wl61kwsi2</t>
+  </si>
+  <si>
+    <t>wl61kwsi3</t>
+  </si>
+  <si>
+    <t>wl61kwti1</t>
+  </si>
+  <si>
+    <t>wl61kwti2</t>
+  </si>
+  <si>
+    <t>wl61kwti3</t>
+  </si>
+  <si>
+    <t>wl61kwvi1</t>
+  </si>
+  <si>
+    <t>wl61kwvi2</t>
+  </si>
+  <si>
+    <t>wl61kwvi3</t>
+  </si>
+  <si>
+    <t>wl61kwxi3</t>
+  </si>
+  <si>
+    <t>wl61kwzi1</t>
+  </si>
+  <si>
+    <t>wl61kwzi2</t>
+  </si>
+  <si>
+    <t>wl61kwzi3</t>
+  </si>
+  <si>
+    <t>wl61pwbi2</t>
+  </si>
+  <si>
+    <t>wl61pwdi1</t>
+  </si>
+  <si>
+    <t>wl61pwdi2</t>
+  </si>
+  <si>
+    <t>wl61pwdi3</t>
+  </si>
+  <si>
+    <t>wl61pwfi1</t>
+  </si>
+  <si>
+    <t>wl61pwfi2</t>
+  </si>
+  <si>
+    <t>wl61pwfi3</t>
+  </si>
+  <si>
+    <t>wl61pwgi1</t>
+  </si>
+  <si>
+    <t>wl61pwgi2</t>
+  </si>
+  <si>
+    <t>wl61pwgi3</t>
+  </si>
+  <si>
+    <t>wl61pwji1</t>
+  </si>
+  <si>
+    <t>wl61pwji2</t>
+  </si>
+  <si>
+    <t>wl61pwji3</t>
+  </si>
+  <si>
+    <t>wl61pwki1</t>
+  </si>
+  <si>
+    <t>wl61pwki2</t>
+  </si>
+  <si>
+    <t>wl61pwki3</t>
+  </si>
+  <si>
+    <t>wl61pwpi1</t>
+  </si>
+  <si>
+    <t>wl61pwpi2</t>
+  </si>
+  <si>
+    <t>wl61pwpi3</t>
+  </si>
+  <si>
+    <t>wl61pwsi1</t>
+  </si>
+  <si>
+    <t>wl61pwsi2</t>
+  </si>
+  <si>
+    <t>wl61pwsi3</t>
+  </si>
+  <si>
+    <t>wl61pwti1</t>
+  </si>
+  <si>
+    <t>wl61pwti2</t>
+  </si>
+  <si>
+    <t>wl61pwti3</t>
+  </si>
+  <si>
+    <t>wl61pwvi1</t>
+  </si>
+  <si>
+    <t>wl61pwvi2</t>
+  </si>
+  <si>
+    <t>wl61pwvi3</t>
+  </si>
+  <si>
+    <t>wl61pwxi1</t>
+  </si>
+  <si>
+    <t>wl61pwxi2</t>
+  </si>
+  <si>
+    <t>wl61pwxi3</t>
+  </si>
+  <si>
+    <t>wl61pwzi1</t>
+  </si>
+  <si>
+    <t>wl61pwzi2</t>
+  </si>
+  <si>
+    <t>wl61pwzi3</t>
+  </si>
+  <si>
+    <t>wl61swki1</t>
+  </si>
+  <si>
+    <t>wl61swki2</t>
+  </si>
+  <si>
+    <t>wl61swpi1</t>
+  </si>
+  <si>
+    <t>wl61swpi2</t>
+  </si>
+  <si>
+    <t>wl61swpi3</t>
+  </si>
+  <si>
+    <t>wl61swti2</t>
+  </si>
+  <si>
+    <t>wl61swti3</t>
+  </si>
+  <si>
+    <t>wl61twbi2</t>
+  </si>
+  <si>
+    <t>wl61twbi3</t>
+  </si>
+  <si>
+    <t>wl61twdi1</t>
+  </si>
+  <si>
+    <t>wl61twdi2</t>
+  </si>
+  <si>
+    <t>wl61twdi3</t>
+  </si>
+  <si>
+    <t>wl61twfi1</t>
+  </si>
+  <si>
+    <t>wl61twfi2</t>
+  </si>
+  <si>
+    <t>wl61twfi3</t>
+  </si>
+  <si>
+    <t>wl61twgi1</t>
+  </si>
+  <si>
+    <t>wl61twgi2</t>
+  </si>
+  <si>
+    <t>wl61twgi3</t>
+  </si>
+  <si>
+    <t>wl61twji1</t>
+  </si>
+  <si>
+    <t>wl61twji2</t>
+  </si>
+  <si>
+    <t>wl61twji3</t>
+  </si>
+  <si>
+    <t>wl61twki1</t>
+  </si>
+  <si>
+    <t>wl61twki2</t>
+  </si>
+  <si>
+    <t>wl61twki3</t>
+  </si>
+  <si>
+    <t>wl61twpi1</t>
+  </si>
+  <si>
+    <t>wl61twpi2</t>
+  </si>
+  <si>
+    <t>wl61twpi3</t>
+  </si>
+  <si>
+    <t>wl61twsi1</t>
+  </si>
+  <si>
+    <t>wl61twsi2</t>
+  </si>
+  <si>
+    <t>wl61twsi3</t>
+  </si>
+  <si>
+    <t>wl61twti2</t>
+  </si>
+  <si>
+    <t>wl61twti3</t>
+  </si>
+  <si>
+    <t>wl61twvi1</t>
+  </si>
+  <si>
+    <t>wl61twvi2</t>
+  </si>
+  <si>
+    <t>wl61twvi3</t>
+  </si>
+  <si>
+    <t>wl61twxi1</t>
+  </si>
+  <si>
+    <t>wl61twxi2</t>
+  </si>
+  <si>
+    <t>wl61twxi3</t>
+  </si>
+  <si>
+    <t>wl61twzi1</t>
+  </si>
+  <si>
+    <t>wl61twzi2</t>
+  </si>
+  <si>
+    <t>wl61twzi3</t>
+  </si>
+  <si>
+    <t>wl61vwki1</t>
+  </si>
+  <si>
+    <t>wl61vwki2</t>
+  </si>
+  <si>
+    <t>wl61vwki3</t>
+  </si>
+  <si>
+    <t>wl61vwpi1</t>
+  </si>
+  <si>
+    <t>wl61vwpi2</t>
+  </si>
+  <si>
+    <t>wl61vwpi3</t>
+  </si>
+  <si>
+    <t>wl61vwti1</t>
+  </si>
+  <si>
+    <t>wl61vwti2</t>
+  </si>
+  <si>
+    <t>wl61vwti3</t>
+  </si>
+  <si>
+    <t>wl61xwki1</t>
+  </si>
+  <si>
+    <t>wl61xwki2</t>
+  </si>
+  <si>
+    <t>wl61xwki3</t>
+  </si>
+  <si>
+    <t>wl61xwpi1</t>
+  </si>
+  <si>
+    <t>wl61xwpi2</t>
+  </si>
+  <si>
+    <t>wl61xwpi3</t>
+  </si>
+  <si>
+    <t>wl61xwti1</t>
+  </si>
+  <si>
+    <t>wl61xwti2</t>
+  </si>
+  <si>
+    <t>wl61xwti3</t>
+  </si>
+  <si>
+    <t>wl61zwki1</t>
+  </si>
+  <si>
+    <t>wl61zwki2</t>
+  </si>
+  <si>
+    <t>wl61zwki3</t>
+  </si>
+  <si>
+    <t>wl61zwpi1</t>
+  </si>
+  <si>
+    <t>wl61zwpi2</t>
+  </si>
+  <si>
+    <t>wl61zwpi3</t>
+  </si>
+  <si>
+    <t>wl61zwti1</t>
+  </si>
+  <si>
+    <t>wl61zwti2</t>
+  </si>
+  <si>
+    <t>wl61zwti3</t>
+  </si>
+  <si>
+    <t>wl61dwti1</t>
+  </si>
+  <si>
+    <t>wl61jwki1</t>
+  </si>
+  <si>
+    <t>wl61jwti1</t>
+  </si>
+  <si>
+    <t>wl61kwdi1</t>
+  </si>
+  <si>
+    <t>wl61kwgi1</t>
+  </si>
+  <si>
+    <t>wl61kwgi2</t>
+  </si>
+  <si>
+    <t>wl61kwki1</t>
+  </si>
+  <si>
+    <t>wl61kwxi1</t>
+  </si>
+  <si>
+    <t>wl61kwxi2</t>
+  </si>
+  <si>
+    <t>wl61pwbi1</t>
+  </si>
+  <si>
+    <t>wl61pwbi3</t>
+  </si>
+  <si>
+    <t>wl61swpa3</t>
+  </si>
+  <si>
+    <t>wl61swti1</t>
+  </si>
+  <si>
+    <t>wl61twbi1</t>
+  </si>
+  <si>
+    <t>wl61twti1</t>
+  </si>
+  <si>
+    <t>inducido_hora1</t>
+  </si>
+  <si>
+    <t>inducido_hora2</t>
+  </si>
+  <si>
+    <t>inducido_hora3</t>
+  </si>
+  <si>
+    <t>inducido_hora4</t>
+  </si>
+  <si>
+    <t>inducido_pan1</t>
+  </si>
+  <si>
+    <t>inducido_pan2</t>
+  </si>
+  <si>
+    <t>inducido_pan3</t>
+  </si>
+  <si>
+    <t>inducido_pan4</t>
+  </si>
+  <si>
+    <t>inducido_tiempo2</t>
+  </si>
+  <si>
+    <t>inducido_tiempo3</t>
+  </si>
+  <si>
+    <t>inducido_tiempo4</t>
+  </si>
+  <si>
+    <t>casaspequenas</t>
+  </si>
+  <si>
+    <t>castanos_ch1</t>
+  </si>
+  <si>
+    <t>cipreses_ch1</t>
+  </si>
+  <si>
+    <t>cordillera_ch1</t>
+  </si>
+  <si>
+    <t>hastaelpuerto_ch1</t>
+  </si>
+  <si>
+    <t>nopasoelrio_ch1</t>
+  </si>
+  <si>
+    <t>patatas_ch1</t>
+  </si>
+  <si>
+    <t>puente_ch1</t>
+  </si>
+  <si>
+    <t>quehagoSigobajando_ch1</t>
+  </si>
+  <si>
+    <t>tesoroOculto_ch1</t>
+  </si>
+  <si>
+    <t>vuelvoatravesarelrio_ch1</t>
+  </si>
+  <si>
+    <t>yenelpuertosigobakando_ch1</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1176,7 +1176,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1190,7 +1190,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1204,7 +1204,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1218,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1232,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1260,7 +1260,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1274,7 +1274,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1288,7 +1288,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -1302,7 +1302,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1316,7 +1316,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -1344,7 +1344,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -1372,7 +1372,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -1386,7 +1386,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -1400,7 +1400,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -1428,7 +1428,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -1442,7 +1442,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1456,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -1470,7 +1470,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -1484,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1498,7 +1498,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -1512,7 +1512,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
@@ -1540,7 +1540,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -1554,7 +1554,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -1568,7 +1568,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -1582,7 +1582,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -1596,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -1610,7 +1610,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -1624,7 +1624,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -1638,7 +1638,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -1652,7 +1652,7 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -1666,7 +1666,7 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -1680,7 +1680,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -1694,7 +1694,7 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -1708,7 +1708,7 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -1722,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -1736,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -1750,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
@@ -1764,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
@@ -1778,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
@@ -1792,7 +1792,7 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -1806,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -1820,7 +1820,7 @@
         <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
@@ -1834,7 +1834,7 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -1848,7 +1848,7 @@
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
@@ -1862,7 +1862,7 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
@@ -1876,7 +1876,7 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
@@ -1890,7 +1890,7 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
@@ -1904,7 +1904,7 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
@@ -1918,7 +1918,7 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
         <v>28</v>
@@ -1932,7 +1932,7 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
@@ -1946,7 +1946,7 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
@@ -1974,7 +1974,7 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
@@ -1988,7 +1988,7 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
@@ -2002,7 +2002,7 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
         <v>28</v>
@@ -2016,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
         <v>28</v>
@@ -2030,7 +2030,7 @@
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
         <v>28</v>
@@ -2044,7 +2044,7 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
@@ -2058,7 +2058,7 @@
         <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
@@ -2072,7 +2072,7 @@
         <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
         <v>28</v>
@@ -2086,7 +2086,7 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
@@ -2100,7 +2100,7 @@
         <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
         <v>28</v>
@@ -2114,7 +2114,7 @@
         <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
@@ -2128,7 +2128,7 @@
         <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
@@ -2142,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
@@ -2170,7 +2170,7 @@
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
@@ -2184,7 +2184,7 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
         <v>28</v>
@@ -2198,7 +2198,7 @@
         <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
@@ -2212,7 +2212,7 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
@@ -2226,7 +2226,7 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D78" t="s">
         <v>28</v>
@@ -2240,7 +2240,7 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
@@ -2254,7 +2254,7 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
         <v>28</v>
@@ -2268,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
@@ -2282,7 +2282,7 @@
         <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
@@ -2296,7 +2296,7 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
@@ -2324,7 +2324,7 @@
         <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
@@ -2338,7 +2338,7 @@
         <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
@@ -2352,7 +2352,7 @@
         <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
@@ -2366,7 +2366,7 @@
         <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s">
         <v>28</v>
@@ -2380,7 +2380,7 @@
         <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
         <v>28</v>
@@ -2394,7 +2394,7 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
         <v>28</v>
@@ -2408,7 +2408,7 @@
         <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
@@ -2422,7 +2422,7 @@
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
@@ -2436,7 +2436,7 @@
         <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D93" t="s">
         <v>28</v>
@@ -2450,7 +2450,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
@@ -2464,7 +2464,7 @@
         <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D95" t="s">
         <v>28</v>
@@ -2478,7 +2478,7 @@
         <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D96" t="s">
         <v>28</v>
@@ -2492,7 +2492,7 @@
         <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
@@ -2506,7 +2506,7 @@
         <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D98" t="s">
         <v>28</v>
@@ -2520,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
         <v>28</v>
@@ -2534,7 +2534,7 @@
         <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
@@ -2548,7 +2548,7 @@
         <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D101" t="s">
         <v>28</v>
@@ -2562,7 +2562,7 @@
         <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D102" t="s">
         <v>28</v>
@@ -2576,7 +2576,7 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
         <v>28</v>
@@ -2590,7 +2590,7 @@
         <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
         <v>28</v>
@@ -2604,7 +2604,7 @@
         <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D105" t="s">
         <v>28</v>
@@ -2618,7 +2618,7 @@
         <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s">
         <v>28</v>
@@ -2632,7 +2632,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D107" t="s">
         <v>28</v>
@@ -2646,7 +2646,7 @@
         <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
@@ -2660,7 +2660,7 @@
         <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
         <v>28</v>
@@ -2674,7 +2674,7 @@
         <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
@@ -2688,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D111" t="s">
         <v>28</v>
@@ -2702,7 +2702,7 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
@@ -2716,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D113" t="s">
         <v>28</v>
@@ -2730,7 +2730,7 @@
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
@@ -2744,7 +2744,7 @@
         <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
         <v>28</v>
@@ -2758,7 +2758,7 @@
         <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
         <v>28</v>
@@ -2772,7 +2772,7 @@
         <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
@@ -2786,7 +2786,7 @@
         <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
@@ -2800,7 +2800,7 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D119" t="s">
         <v>28</v>
@@ -2814,7 +2814,7 @@
         <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
@@ -2828,7 +2828,7 @@
         <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
@@ -2842,7 +2842,7 @@
         <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D122" t="s">
         <v>28</v>
@@ -2856,7 +2856,7 @@
         <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D123" t="s">
         <v>28</v>
@@ -2870,7 +2870,7 @@
         <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D124" t="s">
         <v>28</v>
@@ -2884,7 +2884,7 @@
         <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D125" t="s">
         <v>28</v>
@@ -2898,7 +2898,7 @@
         <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -2912,7 +2912,7 @@
         <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
@@ -2926,7 +2926,7 @@
         <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
         <v>28</v>
@@ -2940,7 +2940,7 @@
         <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
         <v>28</v>
@@ -2954,7 +2954,7 @@
         <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
@@ -2968,7 +2968,7 @@
         <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D131" t="s">
         <v>28</v>
@@ -2982,7 +2982,7 @@
         <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D132" t="s">
         <v>28</v>
@@ -2996,7 +2996,7 @@
         <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D133" t="s">
         <v>28</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D134" t="s">
         <v>28</v>
@@ -3024,7 +3024,7 @@
         <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D135" t="s">
         <v>28</v>
@@ -3038,7 +3038,7 @@
         <v>27</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D136" t="s">
         <v>28</v>
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
@@ -3066,7 +3066,7 @@
         <v>27</v>
       </c>
       <c r="C138" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
         <v>28</v>
@@ -3080,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
@@ -3094,7 +3094,7 @@
         <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D140" t="s">
         <v>28</v>
@@ -3108,7 +3108,7 @@
         <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
         <v>28</v>
@@ -3122,7 +3122,7 @@
         <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
@@ -3136,7 +3136,7 @@
         <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D143" t="s">
         <v>28</v>
@@ -3150,7 +3150,7 @@
         <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
@@ -3164,7 +3164,7 @@
         <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
@@ -3178,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="C146" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D146" t="s">
         <v>28</v>
@@ -3192,7 +3192,7 @@
         <v>27</v>
       </c>
       <c r="C147" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D147" t="s">
         <v>28</v>
@@ -3206,7 +3206,7 @@
         <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
@@ -3220,7 +3220,7 @@
         <v>27</v>
       </c>
       <c r="C149" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
@@ -3234,7 +3234,7 @@
         <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
@@ -3248,7 +3248,7 @@
         <v>27</v>
       </c>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D151" t="s">
         <v>28</v>
@@ -3262,7 +3262,7 @@
         <v>27</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D152" t="s">
         <v>28</v>
@@ -3276,7 +3276,7 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
@@ -3290,7 +3290,7 @@
         <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
@@ -3304,7 +3304,7 @@
         <v>27</v>
       </c>
       <c r="C155" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D155" t="s">
         <v>28</v>
@@ -3318,7 +3318,7 @@
         <v>27</v>
       </c>
       <c r="C156" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D156" t="s">
         <v>28</v>
@@ -3332,7 +3332,7 @@
         <v>27</v>
       </c>
       <c r="C157" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
@@ -3346,7 +3346,7 @@
         <v>27</v>
       </c>
       <c r="C158" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D158" t="s">
         <v>28</v>
@@ -3360,7 +3360,7 @@
         <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D159" t="s">
         <v>28</v>
@@ -3374,7 +3374,7 @@
         <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
@@ -3388,7 +3388,7 @@
         <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
@@ -3402,7 +3402,7 @@
         <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
@@ -3416,7 +3416,7 @@
         <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
@@ -3430,7 +3430,7 @@
         <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
@@ -3444,7 +3444,7 @@
         <v>27</v>
       </c>
       <c r="C165" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D165" t="s">
         <v>28</v>
@@ -3458,7 +3458,7 @@
         <v>27</v>
       </c>
       <c r="C166" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D166" t="s">
         <v>28</v>
@@ -3472,7 +3472,7 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
@@ -3486,7 +3486,7 @@
         <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
@@ -3500,7 +3500,7 @@
         <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
@@ -3514,7 +3514,7 @@
         <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
@@ -3528,7 +3528,7 @@
         <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
@@ -3542,7 +3542,7 @@
         <v>27</v>
       </c>
       <c r="C172" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
@@ -3556,7 +3556,7 @@
         <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
@@ -3570,7 +3570,7 @@
         <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
@@ -3584,7 +3584,7 @@
         <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
@@ -3598,10 +3598,10 @@
         <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D176" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3612,10 +3612,10 @@
         <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D177" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3626,10 +3626,10 @@
         <v>27</v>
       </c>
       <c r="C178" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D178" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3640,10 +3640,10 @@
         <v>27</v>
       </c>
       <c r="C179" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D179" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3654,10 +3654,10 @@
         <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D180" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3668,10 +3668,10 @@
         <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D181" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3682,10 +3682,10 @@
         <v>27</v>
       </c>
       <c r="C182" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D182" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -3696,10 +3696,10 @@
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D183" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3710,10 +3710,10 @@
         <v>27</v>
       </c>
       <c r="C184" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D184" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3724,10 +3724,10 @@
         <v>27</v>
       </c>
       <c r="C185" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D185" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3738,10 +3738,10 @@
         <v>27</v>
       </c>
       <c r="C186" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D186" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3752,10 +3752,10 @@
         <v>27</v>
       </c>
       <c r="C187" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D187" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3766,10 +3766,10 @@
         <v>27</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D188" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -3780,10 +3780,10 @@
         <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D189" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3794,10 +3794,10 @@
         <v>27</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D190" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3805,13 +3805,13 @@
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D191" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -3819,13 +3819,13 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D192" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3833,13 +3833,13 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C193" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D193" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -3847,13 +3847,13 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C194" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D194" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -3861,13 +3861,13 @@
         <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C195" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D195" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -3875,13 +3875,13 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C196" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D196" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3889,13 +3889,13 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D197" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3903,13 +3903,13 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C198" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D198" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3917,13 +3917,13 @@
         <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D199" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,13 +3931,13 @@
         <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C200" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D200" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3945,13 +3945,13 @@
         <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C201" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D201" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3959,13 +3959,13 @@
         <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C202" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D202" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3973,13 +3973,13 @@
         <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C203" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D203" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3987,13 +3987,13 @@
         <v>17</v>
       </c>
       <c r="B204" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D204" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -4001,13 +4001,13 @@
         <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D205" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -4015,13 +4015,13 @@
         <v>19</v>
       </c>
       <c r="B206" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C206" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D206" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -4029,13 +4029,13 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D207" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -4043,13 +4043,13 @@
         <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C208" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D208" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -4057,13 +4057,13 @@
         <v>22</v>
       </c>
       <c r="B209" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C209" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D209" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -4071,13 +4071,13 @@
         <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C210" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D210" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -4085,13 +4085,13 @@
         <v>24</v>
       </c>
       <c r="B211" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C211" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D211" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -4099,13 +4099,13 @@
         <v>25</v>
       </c>
       <c r="B212" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C212" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D212" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -4113,13 +4113,13 @@
         <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C213" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D213" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
